--- a/data/data1.xlsx
+++ b/data/data1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonalikulkarni/Desktop/CS315 Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IITK\ACADEMICS\2024-25 Semester 2\CS315\CourseProject\Asset-Management\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D473671-4185-0744-8FF7-41934EEF52E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC43EFD-64D3-4C20-A32E-8707B9AFB101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="2440" windowWidth="20480" windowHeight="16040" firstSheet="11" activeTab="17" xr2:uid="{CBAEEE57-D7BC-1A44-B5CC-2855726ECD75}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="3" xr2:uid="{CBAEEE57-D7BC-1A44-B5CC-2855726ECD75}"/>
   </bookViews>
   <sheets>
     <sheet name="Roles" sheetId="1" r:id="rId1"/>
@@ -44,8 +44,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -53,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="253">
   <si>
     <t>RoleName</t>
   </si>
@@ -806,13 +804,19 @@
   </si>
   <si>
     <t>Refunded</t>
+  </si>
+  <si>
+    <t>RecentActionTaken</t>
+  </si>
+  <si>
+    <t>Allocated Funds to Activity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1002,6 +1006,14 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1024,7 +1036,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1070,6 +1082,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1416,14 +1429,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -1440,7 +1453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1457,7 +1470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1474,7 +1487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1488,7 +1501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1502,7 +1515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1516,7 +1529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="17">
       <c r="B7" s="1"/>
     </row>
   </sheetData>
@@ -1532,7 +1545,7 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
@@ -1544,7 +1557,7 @@
     <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="10" customFormat="1" ht="17">
       <c r="A1" s="4" t="s">
         <v>70</v>
       </c>
@@ -1567,7 +1580,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1590,7 +1603,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -1613,7 +1626,7 @@
         <v>45332</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -1636,7 +1649,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="23">
         <v>4</v>
       </c>
@@ -1659,7 +1672,7 @@
         <v>45494</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -1682,7 +1695,7 @@
         <v>45511</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="23">
         <v>6</v>
       </c>
@@ -1705,7 +1718,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="26">
         <v>7</v>
       </c>
@@ -1741,7 +1754,7 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
@@ -1751,7 +1764,7 @@
     <col min="7" max="7" width="24.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="17">
       <c r="A1" s="4" t="s">
         <v>74</v>
       </c>
@@ -1774,7 +1787,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1794,7 +1807,7 @@
         <v>45297</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1814,7 +1827,7 @@
         <v>45297</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1834,7 +1847,7 @@
         <v>45297</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1855,7 +1868,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1876,7 +1889,7 @@
       </c>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -1897,7 +1910,7 @@
       </c>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -1918,7 +1931,7 @@
       </c>
       <c r="G8" s="24"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="17">
         <v>8</v>
       </c>
@@ -1939,7 +1952,7 @@
       </c>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="17">
         <v>9</v>
       </c>
@@ -1960,7 +1973,7 @@
       </c>
       <c r="G10" s="24"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="17">
         <v>10</v>
       </c>
@@ -1981,7 +1994,7 @@
       </c>
       <c r="G11" s="29"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="17">
         <v>11</v>
       </c>
@@ -2001,7 +2014,7 @@
         <v>45357</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="17">
         <v>12</v>
       </c>
@@ -2021,7 +2034,7 @@
         <v>45357</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="23">
         <v>13</v>
       </c>
@@ -2041,7 +2054,7 @@
         <v>45478</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="23">
         <v>14</v>
       </c>
@@ -2061,7 +2074,7 @@
         <v>45478</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="23">
         <v>15</v>
       </c>
@@ -2081,7 +2094,7 @@
         <v>45478</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="35">
         <v>16</v>
       </c>
@@ -2101,7 +2114,7 @@
         <v>45509</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="35">
         <v>17</v>
       </c>
@@ -2121,7 +2134,7 @@
         <v>45509</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="35">
         <v>18</v>
       </c>
@@ -2141,7 +2154,7 @@
         <v>45509</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="35">
         <v>19</v>
       </c>
@@ -2161,7 +2174,7 @@
         <v>45509</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="35">
         <v>20</v>
       </c>
@@ -2181,7 +2194,7 @@
         <v>45509</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="23">
         <v>21</v>
       </c>
@@ -2201,7 +2214,7 @@
         <v>45534</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="26">
         <v>22</v>
       </c>
@@ -2221,7 +2234,7 @@
         <v>45659</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="26">
         <v>23</v>
       </c>
@@ -2241,7 +2254,7 @@
         <v>45659</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="26">
         <v>24</v>
       </c>
@@ -2274,7 +2287,7 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
@@ -2284,7 +2297,7 @@
     <col min="9" max="9" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="10" customFormat="1" ht="17">
       <c r="A1" s="4" t="s">
         <v>76</v>
       </c>
@@ -2304,7 +2317,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2321,7 +2334,7 @@
         <v>45297</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2338,7 +2351,7 @@
         <v>45298</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2355,7 +2368,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -2373,7 +2386,7 @@
         <v>45324</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -2391,7 +2404,7 @@
         <v>45326</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -2409,7 +2422,7 @@
         <v>45332</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="17">
         <v>7</v>
       </c>
@@ -2427,7 +2440,7 @@
         <v>45357</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="17">
         <v>8</v>
       </c>
@@ -2445,7 +2458,7 @@
         <v>45360</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="17">
         <v>9</v>
       </c>
@@ -2463,7 +2476,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="23">
         <v>10</v>
       </c>
@@ -2481,7 +2494,7 @@
         <v>45478</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="23">
         <v>11</v>
       </c>
@@ -2499,7 +2512,7 @@
         <v>45480</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="23">
         <v>12</v>
       </c>
@@ -2517,7 +2530,7 @@
         <v>45494</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="35">
         <v>13</v>
       </c>
@@ -2535,7 +2548,7 @@
         <v>45509</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="35">
         <v>14</v>
       </c>
@@ -2553,7 +2566,7 @@
         <v>45510</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="35">
         <v>15</v>
       </c>
@@ -2571,7 +2584,7 @@
         <v>45511</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="23">
         <v>16</v>
       </c>
@@ -2589,7 +2602,7 @@
         <v>45534</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="23">
         <v>17</v>
       </c>
@@ -2607,7 +2620,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="23">
         <v>18</v>
       </c>
@@ -2625,7 +2638,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="26">
         <v>19</v>
       </c>
@@ -2643,7 +2656,7 @@
         <v>45659</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="26">
         <v>20</v>
       </c>
@@ -2660,7 +2673,7 @@
         <v>45659</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="26">
         <v>21</v>
       </c>
@@ -2691,7 +2704,7 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
@@ -2700,7 +2713,7 @@
     <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="10" customFormat="1" ht="17">
       <c r="A1" s="4" t="s">
         <v>82</v>
       </c>
@@ -2723,7 +2736,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2746,7 +2759,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -2769,7 +2782,7 @@
         <v>45330</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -2792,7 +2805,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="23">
         <v>4</v>
       </c>
@@ -2815,7 +2828,7 @@
         <v>45493</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="23">
         <v>5</v>
       </c>
@@ -2838,7 +2851,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2874,7 +2887,7 @@
       <selection activeCell="H2" sqref="H2:H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
@@ -2882,7 +2895,7 @@
     <col min="5" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="10" customFormat="1" ht="17">
       <c r="A1" s="4" t="s">
         <v>85</v>
       </c>
@@ -2902,7 +2915,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2922,7 +2935,7 @@
         <v>45298</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2942,7 +2955,7 @@
         <v>45298</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2962,7 +2975,7 @@
         <v>45298</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2982,7 +2995,7 @@
         <v>45298</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3002,7 +3015,7 @@
         <v>45298</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -3025,7 +3038,7 @@
       <c r="I7" s="12"/>
       <c r="K7" s="12"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -3048,7 +3061,7 @@
       <c r="I8" s="12"/>
       <c r="K8" s="17"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="17">
         <v>8</v>
       </c>
@@ -3071,7 +3084,7 @@
       <c r="I9" s="17"/>
       <c r="K9" s="23"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="17">
         <v>9</v>
       </c>
@@ -3094,7 +3107,7 @@
       <c r="I10" s="17"/>
       <c r="K10" s="23"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="17">
         <v>10</v>
       </c>
@@ -3116,7 +3129,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="17">
         <v>11</v>
       </c>
@@ -3138,7 +3151,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="17">
         <v>12</v>
       </c>
@@ -3160,7 +3173,7 @@
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="23">
         <v>13</v>
       </c>
@@ -3182,7 +3195,7 @@
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="23">
         <v>14</v>
       </c>
@@ -3204,7 +3217,7 @@
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="23">
         <v>15</v>
       </c>
@@ -3226,7 +3239,7 @@
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="23">
         <v>16</v>
       </c>
@@ -3248,7 +3261,7 @@
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="26">
         <v>17</v>
       </c>
@@ -3281,7 +3294,7 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
@@ -3290,7 +3303,7 @@
     <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="10" customFormat="1" ht="17">
       <c r="A1" s="4" t="s">
         <v>87</v>
       </c>
@@ -3310,7 +3323,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3327,7 +3340,7 @@
         <v>45298</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3344,7 +3357,7 @@
         <v>45299</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3361,7 +3374,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -3379,7 +3392,7 @@
         <v>45326</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -3398,7 +3411,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -3417,7 +3430,7 @@
       </c>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="17">
         <v>7</v>
       </c>
@@ -3436,7 +3449,7 @@
       </c>
       <c r="H8" s="18"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="17">
         <v>8</v>
       </c>
@@ -3455,7 +3468,7 @@
       </c>
       <c r="H9" s="24"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="17">
         <v>9</v>
       </c>
@@ -3474,7 +3487,7 @@
       </c>
       <c r="H10" s="24"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="23">
         <v>10</v>
       </c>
@@ -3493,7 +3506,7 @@
       </c>
       <c r="H11" s="29"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="23">
         <v>11</v>
       </c>
@@ -3511,7 +3524,7 @@
         <v>45483</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="23">
         <v>12</v>
       </c>
@@ -3531,7 +3544,7 @@
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="23">
         <v>13</v>
       </c>
@@ -3548,7 +3561,7 @@
         <v>45537</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="23">
         <v>14</v>
       </c>
@@ -3565,7 +3578,7 @@
         <v>45538</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="23">
         <v>15</v>
       </c>
@@ -3582,7 +3595,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="26">
         <v>16</v>
       </c>
@@ -3600,7 +3613,7 @@
         <v>45660</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="26">
         <v>17</v>
       </c>
@@ -3617,7 +3630,7 @@
         <v>45660</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="26">
         <v>18</v>
       </c>
@@ -3648,7 +3661,7 @@
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.1640625" bestFit="1" customWidth="1"/>
@@ -3660,7 +3673,7 @@
     <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="10" customFormat="1" ht="17">
       <c r="A1" s="4" t="s">
         <v>78</v>
       </c>
@@ -3690,7 +3703,7 @@
       </c>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3716,7 +3729,7 @@
         <v>45511</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3742,7 +3755,7 @@
         <v>45511</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3769,7 +3782,7 @@
         <v>45511</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3795,7 +3808,7 @@
         <v>45511</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3821,7 +3834,7 @@
         <v>45504</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3847,7 +3860,7 @@
         <v>45504</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3873,7 +3886,7 @@
         <v>45504</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3899,7 +3912,7 @@
         <v>45504</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3922,7 +3935,7 @@
         <v>45511</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -3949,7 +3962,7 @@
         <v>45504</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -3977,7 +3990,7 @@
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="17">
         <v>12</v>
       </c>
@@ -4005,7 +4018,7 @@
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="17">
         <v>13</v>
       </c>
@@ -4033,7 +4046,7 @@
       </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="17">
         <v>14</v>
       </c>
@@ -4061,7 +4074,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="17">
         <v>15</v>
       </c>
@@ -4089,7 +4102,7 @@
       </c>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="17">
         <v>16</v>
       </c>
@@ -4117,7 +4130,7 @@
       </c>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="17">
         <v>17</v>
       </c>
@@ -4144,7 +4157,7 @@
       </c>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" s="17">
         <v>18</v>
       </c>
@@ -4171,7 +4184,7 @@
       </c>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="17">
         <v>19</v>
       </c>
@@ -4198,7 +4211,7 @@
       </c>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" s="17">
         <v>20</v>
       </c>
@@ -4224,7 +4237,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" s="17">
         <v>21</v>
       </c>
@@ -4250,7 +4263,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" s="17">
         <v>22</v>
       </c>
@@ -4276,7 +4289,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" s="17">
         <v>23</v>
       </c>
@@ -4302,7 +4315,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" s="17">
         <v>24</v>
       </c>
@@ -4328,7 +4341,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" s="17">
         <v>25</v>
       </c>
@@ -4354,7 +4367,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" s="17">
         <v>26</v>
       </c>
@@ -4380,7 +4393,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" s="23">
         <v>27</v>
       </c>
@@ -4405,7 +4418,7 @@
         <v>45747</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" s="23">
         <v>28</v>
       </c>
@@ -4430,7 +4443,7 @@
         <v>45747</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" s="23">
         <v>29</v>
       </c>
@@ -4455,7 +4468,7 @@
         <v>45747</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31" s="23">
         <v>30</v>
       </c>
@@ -4492,7 +4505,7 @@
       <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
@@ -4502,7 +4515,7 @@
     <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="10" customFormat="1" ht="17">
       <c r="A1" s="4" t="s">
         <v>91</v>
       </c>
@@ -4525,7 +4538,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4546,7 +4559,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4567,7 +4580,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4587,7 +4600,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4607,7 +4620,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4627,7 +4640,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4647,7 +4660,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4667,7 +4680,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4687,7 +4700,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4707,7 +4720,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4727,7 +4740,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4747,7 +4760,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4767,7 +4780,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4787,7 +4800,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4807,7 +4820,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4827,7 +4840,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4847,7 +4860,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4867,7 +4880,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4887,7 +4900,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -4908,7 +4921,7 @@
         <v>45330</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="12">
         <v>20</v>
       </c>
@@ -4929,7 +4942,7 @@
         <v>45330</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="12">
         <v>21</v>
       </c>
@@ -4950,7 +4963,7 @@
         <v>45332</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="12">
         <v>22</v>
       </c>
@@ -4971,7 +4984,7 @@
         <v>45332</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4991,7 +5004,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5011,7 +5024,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5031,7 +5044,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5051,7 +5064,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5071,7 +5084,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="17">
         <v>28</v>
       </c>
@@ -5092,7 +5105,7 @@
         <v>45372</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="17">
         <v>29</v>
       </c>
@@ -5113,7 +5126,7 @@
         <v>45372</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="17">
         <v>30</v>
       </c>
@@ -5134,7 +5147,7 @@
         <v>45372</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="17">
         <v>31</v>
       </c>
@@ -5155,7 +5168,7 @@
         <v>45372</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="17">
         <v>32</v>
       </c>
@@ -5176,7 +5189,7 @@
         <v>45372</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="17">
         <v>33</v>
       </c>
@@ -5196,7 +5209,7 @@
         <v>45372</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="17">
         <v>34</v>
       </c>
@@ -5216,7 +5229,7 @@
         <v>45372</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="17">
         <v>35</v>
       </c>
@@ -5236,7 +5249,7 @@
         <v>45372</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="17">
         <v>36</v>
       </c>
@@ -5256,7 +5269,7 @@
         <v>45372</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="17">
         <v>37</v>
       </c>
@@ -5276,7 +5289,7 @@
         <v>45372</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="17">
         <v>38</v>
       </c>
@@ -5296,7 +5309,7 @@
         <v>45372</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="17">
         <v>39</v>
       </c>
@@ -5316,7 +5329,7 @@
         <v>45372</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="17">
         <v>40</v>
       </c>
@@ -5336,7 +5349,7 @@
         <v>45372</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="17">
         <v>41</v>
       </c>
@@ -5356,7 +5369,7 @@
         <v>45372</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" s="17">
         <v>42</v>
       </c>
@@ -5376,7 +5389,7 @@
         <v>45372</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="17">
         <v>43</v>
       </c>
@@ -5396,7 +5409,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="17">
         <v>44</v>
       </c>
@@ -5416,7 +5429,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="17">
         <v>45</v>
       </c>
@@ -5436,7 +5449,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" s="17">
         <v>46</v>
       </c>
@@ -5456,7 +5469,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" s="17">
         <v>47</v>
       </c>
@@ -5476,7 +5489,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" s="17">
         <v>48</v>
       </c>
@@ -5496,7 +5509,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" s="17">
         <v>49</v>
       </c>
@@ -5516,7 +5529,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" s="17">
         <v>50</v>
       </c>
@@ -5536,7 +5549,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" s="17">
         <v>51</v>
       </c>
@@ -5556,7 +5569,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" s="17">
         <v>52</v>
       </c>
@@ -5576,7 +5589,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" s="17">
         <v>53</v>
       </c>
@@ -5596,7 +5609,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" s="17">
         <v>54</v>
       </c>
@@ -5616,7 +5629,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" s="17">
         <v>55</v>
       </c>
@@ -5636,7 +5649,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" s="17">
         <v>56</v>
       </c>
@@ -5656,7 +5669,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" s="17">
         <v>57</v>
       </c>
@@ -5676,7 +5689,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" s="23">
         <v>58</v>
       </c>
@@ -5697,7 +5710,7 @@
         <v>45494</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" s="23">
         <v>59</v>
       </c>
@@ -5718,7 +5731,7 @@
         <v>45494</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" s="23">
         <v>60</v>
       </c>
@@ -5739,7 +5752,7 @@
         <v>45494</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" s="23">
         <v>61</v>
       </c>
@@ -5760,7 +5773,7 @@
         <v>45494</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" s="23">
         <v>62</v>
       </c>
@@ -5781,7 +5794,7 @@
         <v>45494</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" s="23">
         <v>63</v>
       </c>
@@ -5802,7 +5815,7 @@
         <v>45494</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" s="31">
         <v>64</v>
       </c>
@@ -5823,7 +5836,7 @@
         <v>45504</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" s="31">
         <v>65</v>
       </c>
@@ -5844,7 +5857,7 @@
         <v>45504</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" s="26">
         <v>66</v>
       </c>
@@ -5864,7 +5877,7 @@
         <v>45504</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" s="26">
         <v>67</v>
       </c>
@@ -5884,7 +5897,7 @@
         <v>45504</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" s="26">
         <v>68</v>
       </c>
@@ -5904,7 +5917,7 @@
         <v>45504</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" s="26">
         <v>69</v>
       </c>
@@ -5924,7 +5937,7 @@
         <v>45504</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" s="26">
         <v>70</v>
       </c>
@@ -5944,7 +5957,7 @@
         <v>45504</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" s="35">
         <v>71</v>
       </c>
@@ -5965,7 +5978,7 @@
         <v>45511</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" s="35">
         <v>72</v>
       </c>
@@ -5986,7 +5999,7 @@
         <v>45511</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" s="35">
         <v>73</v>
       </c>
@@ -6007,7 +6020,7 @@
         <v>45511</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" s="35">
         <v>74</v>
       </c>
@@ -6028,7 +6041,7 @@
         <v>45511</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76" s="35">
         <v>75</v>
       </c>
@@ -6049,7 +6062,7 @@
         <v>45511</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" s="23">
         <v>76</v>
       </c>
@@ -6070,7 +6083,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78" s="23">
         <v>77</v>
       </c>
@@ -6090,7 +6103,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79" s="23">
         <v>78</v>
       </c>
@@ -6111,7 +6124,7 @@
         <v>45596</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" s="23">
         <v>79</v>
       </c>
@@ -6132,7 +6145,7 @@
         <v>45596</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" s="23">
         <v>80</v>
       </c>
@@ -6153,7 +6166,7 @@
         <v>45596</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" s="23">
         <v>81</v>
       </c>
@@ -6173,7 +6186,7 @@
         <v>45596</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" s="26">
         <v>82</v>
       </c>
@@ -6194,7 +6207,7 @@
         <v>45663</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" s="26">
         <v>83</v>
       </c>
@@ -6214,7 +6227,7 @@
         <v>45663</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85" s="26">
         <v>84</v>
       </c>
@@ -6234,7 +6247,7 @@
         <v>45663</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86" s="26">
         <v>85</v>
       </c>
@@ -6254,7 +6267,7 @@
         <v>45663</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87" s="26">
         <v>86</v>
       </c>
@@ -6275,7 +6288,7 @@
         <v>45747</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88" s="26">
         <v>87</v>
       </c>
@@ -6296,7 +6309,7 @@
         <v>45747</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89" s="26">
         <v>88</v>
       </c>
@@ -6326,11 +6339,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964443A3-465C-F448-B0D8-DC2554027F31}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="112" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="112" workbookViewId="0">
       <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
@@ -6343,7 +6356,7 @@
     <col min="11" max="11" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="17">
       <c r="A1" s="4" t="s">
         <v>95</v>
       </c>
@@ -6373,7 +6386,7 @@
       </c>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6400,7 +6413,7 @@
       </c>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6427,7 +6440,7 @@
       </c>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6454,7 +6467,7 @@
       </c>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6480,7 +6493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6506,7 +6519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6533,7 +6546,7 @@
       </c>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6560,7 +6573,7 @@
       </c>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6587,7 +6600,7 @@
       </c>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6614,7 +6627,7 @@
       </c>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -6641,7 +6654,7 @@
       </c>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -6668,7 +6681,7 @@
       </c>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6695,7 +6708,7 @@
       </c>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6722,7 +6735,7 @@
       </c>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6749,7 +6762,7 @@
       </c>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6776,7 +6789,7 @@
       </c>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6803,7 +6816,7 @@
       </c>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" s="17">
         <v>17</v>
       </c>
@@ -6830,7 +6843,7 @@
       </c>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="17">
         <v>18</v>
       </c>
@@ -6857,7 +6870,7 @@
       </c>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" s="17">
         <v>19</v>
       </c>
@@ -6884,7 +6897,7 @@
       </c>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" s="17">
         <v>20</v>
       </c>
@@ -6910,7 +6923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" s="17">
         <v>21</v>
       </c>
@@ -6936,7 +6949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" s="17">
         <v>22</v>
       </c>
@@ -6962,7 +6975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" s="17">
         <v>23</v>
       </c>
@@ -6988,7 +7001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" s="17">
         <v>24</v>
       </c>
@@ -7014,7 +7027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26" s="17">
         <v>25</v>
       </c>
@@ -7040,7 +7053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27" s="17">
         <v>26</v>
       </c>
@@ -7066,7 +7079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="A28" s="17">
         <v>27</v>
       </c>
@@ -7092,7 +7105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29" s="17">
         <v>28</v>
       </c>
@@ -7118,7 +7131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30" s="17">
         <v>29</v>
       </c>
@@ -7144,7 +7157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="A31" s="17">
         <v>30</v>
       </c>
@@ -7170,7 +7183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="A32" s="17">
         <v>31</v>
       </c>
@@ -7196,7 +7209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" s="23">
         <v>32</v>
       </c>
@@ -7222,7 +7235,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="23">
         <v>33</v>
       </c>
@@ -7248,7 +7261,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="23">
         <v>34</v>
       </c>
@@ -7274,7 +7287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" s="31">
         <v>35</v>
       </c>
@@ -7300,7 +7313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" s="31">
         <v>36</v>
       </c>
@@ -7326,7 +7339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" s="26">
         <v>37</v>
       </c>
@@ -7352,7 +7365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" s="26">
         <v>38</v>
       </c>
@@ -7378,7 +7391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" s="26">
         <v>39</v>
       </c>
@@ -7404,7 +7417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" s="26">
         <v>40</v>
       </c>
@@ -7430,7 +7443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" s="26">
         <v>41</v>
       </c>
@@ -7456,7 +7469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" s="35">
         <v>42</v>
       </c>
@@ -7482,7 +7495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44" s="35">
         <v>43</v>
       </c>
@@ -7508,7 +7521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" s="35">
         <v>44</v>
       </c>
@@ -7534,7 +7547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" s="35">
         <v>45</v>
       </c>
@@ -7560,7 +7573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" s="35">
         <v>46</v>
       </c>
@@ -7586,7 +7599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" s="23">
         <v>47</v>
       </c>
@@ -7612,7 +7625,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" s="23">
         <v>48</v>
       </c>
@@ -7638,7 +7651,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" s="23">
         <v>49</v>
       </c>
@@ -7664,7 +7677,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" s="23">
         <v>50</v>
       </c>
@@ -7690,7 +7703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" s="23">
         <v>51</v>
       </c>
@@ -7716,7 +7729,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" s="26">
         <v>52</v>
       </c>
@@ -7742,7 +7755,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54" s="26">
         <v>53</v>
       </c>
@@ -7768,7 +7781,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" s="26">
         <v>54</v>
       </c>
@@ -7794,7 +7807,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="A56" s="26">
         <v>55</v>
       </c>
@@ -7820,7 +7833,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57" s="26">
         <v>56</v>
       </c>
@@ -7846,7 +7859,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58" s="26">
         <v>57</v>
       </c>
@@ -7886,7 +7899,7 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
@@ -7900,7 +7913,7 @@
     <col min="14" max="14" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="10" customFormat="1" ht="17">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -7947,7 +7960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7985,7 +7998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8023,7 +8036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8061,7 +8074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8099,7 +8112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8137,7 +8150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8175,7 +8188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8213,7 +8226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8251,7 +8264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8289,7 +8302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8327,7 +8340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8365,7 +8378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8399,7 +8412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -8436,7 +8449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="A15" s="17">
         <v>14</v>
       </c>
@@ -8473,7 +8486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -8510,7 +8523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8544,7 +8557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8578,7 +8591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8612,7 +8625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8646,7 +8659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -8680,7 +8693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8751,14 +8764,14 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -8775,7 +8788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8792,7 +8805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8816,19 +8829,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE436B6-0122-7746-9FB9-6411860B7EEC}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView zoomScale="139" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="18.5">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -8850,8 +8863,11 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="43" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8873,8 +8889,11 @@
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8896,8 +8915,11 @@
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8919,24 +8941,28 @@
       <c r="G4">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="C6" s="3"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="C7" s="3"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="C8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8948,7 +8974,7 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
@@ -8960,7 +8986,7 @@
     <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="17">
       <c r="A1" s="4" t="s">
         <v>41</v>
       </c>
@@ -8989,7 +9015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9009,7 +9035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9033,7 +9059,7 @@
       </c>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9057,7 +9083,7 @@
       </c>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9084,7 +9110,7 @@
       </c>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9110,7 +9136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9136,7 +9162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9162,7 +9188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9190,7 +9216,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" s="23">
         <v>9</v>
       </c>
@@ -9220,7 +9246,7 @@
       <c r="L10" s="3"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9248,7 +9274,7 @@
       <c r="L11" s="3"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9277,7 +9303,7 @@
       <c r="L12" s="3"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9305,7 +9331,7 @@
       <c r="L13" s="3"/>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -9332,7 +9358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" s="17">
         <v>14</v>
       </c>
@@ -9359,7 +9385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9385,7 +9411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9411,7 +9437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9437,7 +9463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9463,7 +9489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9489,7 +9515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9515,7 +9541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9541,16 +9567,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:4">
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:4">
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:4">
       <c r="D35" s="3"/>
     </row>
   </sheetData>
@@ -9566,7 +9592,7 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
@@ -9576,7 +9602,7 @@
     <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="10" customFormat="1" ht="17">
       <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
@@ -9599,7 +9625,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9622,7 +9648,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9645,7 +9671,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9668,7 +9694,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9691,7 +9717,7 @@
         <v>45272</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9714,7 +9740,7 @@
         <v>45272</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9737,7 +9763,7 @@
         <v>45272</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9760,7 +9786,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -9783,7 +9809,7 @@
         <v>45323</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="17">
         <v>9</v>
       </c>
@@ -9806,7 +9832,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="23">
         <v>10</v>
       </c>
@@ -9829,7 +9855,7 @@
         <v>45474</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -9852,7 +9878,7 @@
         <v>45504</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="23">
         <v>12</v>
       </c>
@@ -9875,7 +9901,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="23">
         <v>13</v>
       </c>
@@ -9898,7 +9924,7 @@
         <v>45596</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9921,7 +9947,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9944,31 +9970,31 @@
         <v>45747</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:5">
       <c r="D19" s="12"/>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:5">
       <c r="D20" s="17"/>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:5">
       <c r="E21" s="12"/>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:5">
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:5">
       <c r="E23" s="12"/>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:5">
       <c r="D29" s="23"/>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:5">
       <c r="D30" s="23"/>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:5">
       <c r="D31" s="26"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:3">
       <c r="C33" s="26"/>
     </row>
   </sheetData>
@@ -9984,7 +10010,7 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
@@ -9996,7 +10022,7 @@
     <col min="11" max="11" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="10" customFormat="1" ht="17">
       <c r="A1" s="4" t="s">
         <v>53</v>
       </c>
@@ -10027,7 +10053,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10050,7 +10076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10073,7 +10099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10096,7 +10122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10119,7 +10145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10147,7 +10173,7 @@
       </c>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -10173,7 +10199,7 @@
       </c>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -10198,7 +10224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="17">
         <v>8</v>
       </c>
@@ -10223,7 +10249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="17">
         <v>9</v>
       </c>
@@ -10248,7 +10274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="17">
         <v>10</v>
       </c>
@@ -10273,7 +10299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" s="17">
         <v>11</v>
       </c>
@@ -10298,7 +10324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" s="17">
         <v>12</v>
       </c>
@@ -10321,7 +10347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" s="23">
         <v>13</v>
       </c>
@@ -10348,7 +10374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" s="23">
         <v>14</v>
       </c>
@@ -10375,7 +10401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" s="23">
         <v>15</v>
       </c>
@@ -10400,7 +10426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="23">
         <v>16</v>
       </c>
@@ -10421,31 +10447,31 @@
         <v>45478</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="D18" s="30"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="D19" s="30"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="D20" s="30"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -10456,7 +10482,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -10467,7 +10493,7 @@
       <c r="H29" s="13"/>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -10478,7 +10504,7 @@
       <c r="H30" s="18"/>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -10489,7 +10515,7 @@
       <c r="H31" s="18"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -10500,7 +10526,7 @@
       <c r="H32" s="18"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -10511,7 +10537,7 @@
       <c r="H33" s="18"/>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -10522,28 +10548,28 @@
       <c r="H34" s="18"/>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="H42" s="6"/>
     </row>
   </sheetData>
@@ -10560,7 +10586,7 @@
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
@@ -10575,7 +10601,7 @@
     <col min="13" max="13" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="10" customFormat="1" ht="17">
       <c r="A1" s="4" t="s">
         <v>62</v>
       </c>
@@ -10610,7 +10636,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10643,7 +10669,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -10678,7 +10704,7 @@
         <v>45504</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -10711,7 +10737,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="23">
         <v>4</v>
       </c>
@@ -10746,7 +10772,7 @@
         <v>45596</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10795,7 +10821,7 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
@@ -10805,7 +10831,7 @@
     <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="10" customFormat="1" ht="17">
       <c r="A1" s="4" t="s">
         <v>67</v>
       </c>
@@ -10828,7 +10854,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10851,7 +10877,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10874,7 +10900,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -10897,7 +10923,7 @@
         <v>45323</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -10920,7 +10946,7 @@
         <v>45330</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -10943,7 +10969,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="17">
         <v>6</v>
       </c>
@@ -10966,7 +10992,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="23">
         <v>7</v>
       </c>
@@ -10989,7 +11015,7 @@
         <v>45474</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -11012,7 +11038,7 @@
         <v>45493</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -11035,7 +11061,7 @@
         <v>45504</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="23">
         <v>10</v>
       </c>
@@ -11058,7 +11084,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="23">
         <v>11</v>
       </c>
@@ -11081,7 +11107,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="23">
         <v>12</v>
       </c>
@@ -11104,7 +11130,7 @@
         <v>45596</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="26">
         <v>13</v>
       </c>
@@ -11127,7 +11153,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="23">
         <v>14</v>
       </c>
@@ -11150,7 +11176,7 @@
         <v>45663</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="23">
         <v>15</v>
       </c>
@@ -11173,30 +11199,30 @@
         <v>45747</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:4">
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:4">
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:4">
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:4">
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:4">
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:4">
       <c r="C31" s="26"/>
       <c r="D31" s="26"/>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:4">
       <c r="D32" s="26"/>
     </row>
   </sheetData>

--- a/data/data1.xlsx
+++ b/data/data1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kartik/Desktop/Asset-Management/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F1EA7C-6EFA-7D4C-96C0-14F316F91368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6DCE8F-6DA7-994B-8B25-652F6B060A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" firstSheet="2" activeTab="10" xr2:uid="{CBAEEE57-D7BC-1A44-B5CC-2855726ECD75}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" firstSheet="4" activeTab="16" xr2:uid="{CBAEEE57-D7BC-1A44-B5CC-2855726ECD75}"/>
   </bookViews>
   <sheets>
     <sheet name="Roles" sheetId="1" r:id="rId1"/>
@@ -259,9 +259,6 @@
     <t>Funds</t>
   </si>
   <si>
-    <t>Created</t>
-  </si>
-  <si>
     <t>RequestId</t>
   </si>
   <si>
@@ -766,9 +763,6 @@
     <t>Returned</t>
   </si>
   <si>
-    <t>Refund</t>
-  </si>
-  <si>
     <t>Allocated more Funds</t>
   </si>
   <si>
@@ -802,7 +796,13 @@
     <t>RecentActionTaken</t>
   </si>
   <si>
-    <t>Allocated Funds to Activity</t>
+    <t>Allocated</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Destroyed</t>
   </si>
 </sst>
 </file>
@@ -1065,10 +1065,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1433,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>6</v>
@@ -1447,7 +1447,7 @@
         <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="5">
         <v>45261</v>
@@ -1461,10 +1461,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D3" s="5">
         <v>45261</v>
@@ -1478,7 +1478,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4" s="5">
         <v>45261</v>
@@ -1492,7 +1492,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D5" s="5">
         <v>45261</v>
@@ -1506,7 +1506,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D6" s="5">
         <v>45261</v>
@@ -1528,7 +1528,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView zoomScale="134" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1547,31 +1547,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>53</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1588,7 +1588,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F2" s="22">
         <v>13</v>
@@ -1617,7 +1617,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F3" s="22">
         <v>14</v>
@@ -1646,7 +1646,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F4" s="22">
         <v>15</v>
@@ -1675,7 +1675,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F5" s="34">
         <v>1</v>
@@ -1704,7 +1704,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F6" s="34">
         <v>2</v>
@@ -1733,7 +1733,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F7" s="34">
         <v>3</v>
@@ -1762,7 +1762,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F8" s="34">
         <v>4</v>
@@ -1786,8 +1786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4E7797-05EA-3F4F-8428-F0826A7A0726}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScale="136" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1802,22 +1802,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1831,7 +1831,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>249</v>
       </c>
       <c r="F2" s="5">
         <v>45297</v>
@@ -1848,7 +1848,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F3" s="5">
         <v>45298</v>
@@ -1865,7 +1865,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F4" s="5">
         <v>45302</v>
@@ -1882,7 +1882,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>69</v>
+        <v>249</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="12">
@@ -1900,7 +1900,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12">
@@ -1918,7 +1918,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="12">
@@ -1936,7 +1936,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>69</v>
+        <v>249</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="17">
@@ -1954,7 +1954,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="17">
@@ -1972,7 +1972,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="17">
@@ -1990,7 +1990,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>69</v>
+        <v>249</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="23">
@@ -2008,7 +2008,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="23">
@@ -2026,7 +2026,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="23">
@@ -2044,7 +2044,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>69</v>
+        <v>249</v>
       </c>
       <c r="E14" s="34"/>
       <c r="F14" s="35">
@@ -2062,7 +2062,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E15" s="34"/>
       <c r="F15" s="35">
@@ -2080,7 +2080,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="35">
@@ -2098,7 +2098,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>69</v>
+        <v>249</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="23">
@@ -2116,7 +2116,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="23">
@@ -2134,7 +2134,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="23">
@@ -2152,7 +2152,7 @@
         <v>10</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>69</v>
+        <v>249</v>
       </c>
       <c r="E20" s="25"/>
       <c r="F20" s="28">
@@ -2170,7 +2170,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F21" s="5">
         <v>45659</v>
@@ -2187,7 +2187,7 @@
         <v>10</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E22" s="25"/>
       <c r="F22" s="28">
@@ -2204,7 +2204,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="118" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2218,25 +2218,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2253,7 +2253,7 @@
         <v>101000</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F2" s="5">
         <v>45298</v>
@@ -2276,7 +2276,7 @@
         <v>15000</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F3" s="12">
         <v>45326</v>
@@ -2299,7 +2299,7 @@
         <v>408000</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F4" s="17">
         <v>45360</v>
@@ -2322,7 +2322,7 @@
         <v>49000</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F5" s="23">
         <v>45481</v>
@@ -2345,7 +2345,7 @@
         <v>5000</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F6" s="23">
         <v>45537</v>
@@ -2368,7 +2368,7 @@
         <v>12000</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F7" s="5">
         <v>45660</v>
@@ -2400,22 +2400,22 @@
   <sheetData>
     <row r="1" spans="1:11" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -2794,7 +2794,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView zoomScale="113" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2808,22 +2808,22 @@
   <sheetData>
     <row r="1" spans="1:8" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2837,7 +2837,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>249</v>
       </c>
       <c r="F2" s="5">
         <v>45298</v>
@@ -2854,7 +2854,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F3" s="5">
         <v>45299</v>
@@ -2871,7 +2871,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F4" s="5">
         <v>45301</v>
@@ -2888,7 +2888,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>69</v>
+        <v>249</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="12">
@@ -2906,7 +2906,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="12">
@@ -2925,7 +2925,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="12">
@@ -2944,7 +2944,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>69</v>
+        <v>249</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="17">
@@ -2963,7 +2963,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="17">
@@ -2982,7 +2982,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="17">
@@ -3001,7 +3001,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>69</v>
+        <v>249</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="23">
@@ -3020,7 +3020,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="23">
@@ -3038,7 +3038,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="23">
@@ -3058,7 +3058,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>69</v>
+        <v>249</v>
       </c>
       <c r="F14" s="23">
         <v>45537</v>
@@ -3075,7 +3075,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F15" s="23">
         <v>45538</v>
@@ -3092,7 +3092,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" s="23">
         <v>45541</v>
@@ -3109,7 +3109,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>69</v>
+        <v>249</v>
       </c>
       <c r="E17" s="25"/>
       <c r="F17" s="28">
@@ -3127,7 +3127,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F18" s="5">
         <v>45660</v>
@@ -3144,7 +3144,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="28">
@@ -3178,7 +3178,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>9</v>
@@ -3190,19 +3190,19 @@
         <v>54</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K1" s="3"/>
     </row>
@@ -3217,13 +3217,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H2" s="5">
         <v>45301</v>
@@ -3243,13 +3243,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H3" s="5">
         <v>45301</v>
@@ -3269,13 +3269,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="5">
@@ -3296,13 +3296,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H5" s="5">
         <v>45301</v>
@@ -3322,13 +3322,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H6" s="5">
         <v>45301</v>
@@ -3348,13 +3348,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H7" s="5">
         <v>45301</v>
@@ -3374,13 +3374,13 @@
         <v>3</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E8" s="7">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H8" s="5">
         <v>45301</v>
@@ -3400,13 +3400,13 @@
         <v>4</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H9" s="5">
         <v>45301</v>
@@ -3429,7 +3429,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H10" s="5">
         <v>45301</v>
@@ -3449,13 +3449,13 @@
         <v>6</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E11" s="11">
         <v>1</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="12">
@@ -3476,13 +3476,13 @@
         <v>7</v>
       </c>
       <c r="D12" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E12" s="11">
+        <v>1</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>211</v>
-      </c>
-      <c r="E12" s="11">
-        <v>1</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>212</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="12">
@@ -3504,13 +3504,13 @@
         <v>8</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E13" s="16">
         <v>0</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="17">
@@ -3532,13 +3532,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E14" s="16">
         <v>0</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="17">
@@ -3560,13 +3560,13 @@
         <v>10</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E15" s="16">
         <v>0</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="17">
@@ -3588,13 +3588,13 @@
         <v>11</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E16" s="16">
         <v>0</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="17">
@@ -3616,13 +3616,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E17" s="16">
         <v>0</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G17" s="16"/>
       <c r="H17" s="17">
@@ -3644,13 +3644,13 @@
         <v>8</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E18" s="16">
         <v>0</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H18" s="17">
         <v>45372</v>
@@ -3671,13 +3671,13 @@
         <v>9</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E19" s="16">
         <v>0</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H19" s="17">
         <v>45372</v>
@@ -3698,13 +3698,13 @@
         <v>10</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E20" s="16">
         <v>0</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H20" s="17">
         <v>45372</v>
@@ -3725,13 +3725,13 @@
         <v>11</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E21" s="16">
         <v>0</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H21" s="17">
         <v>45372</v>
@@ -3751,13 +3751,13 @@
         <v>12</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E22" s="16">
         <v>0</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H22" s="17">
         <v>45372</v>
@@ -3777,13 +3777,13 @@
         <v>8</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E23" s="16">
         <v>0</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H23" s="17">
         <v>45372</v>
@@ -3803,13 +3803,13 @@
         <v>9</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E24" s="16">
         <v>0</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H24" s="17">
         <v>45372</v>
@@ -3829,13 +3829,13 @@
         <v>10</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E25" s="16">
         <v>0</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H25" s="17">
         <v>45372</v>
@@ -3855,13 +3855,13 @@
         <v>11</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E26" s="16">
         <v>0</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H26" s="17">
         <v>45372</v>
@@ -3881,13 +3881,13 @@
         <v>12</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E27" s="16">
         <v>0</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H27" s="17">
         <v>45372</v>
@@ -3911,7 +3911,7 @@
         <v>30</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G28" s="22"/>
       <c r="H28" s="23">
@@ -3936,7 +3936,7 @@
         <v>30</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G29" s="22"/>
       <c r="H29" s="23">
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G30" s="22"/>
       <c r="H30" s="23">
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H31" s="23">
         <v>45541</v>
@@ -4004,8 +4004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A90625B0-9599-5748-9890-8DE2284F6D88}">
   <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+    <sheetView topLeftCell="A55" zoomScale="107" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4020,25 +4020,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -4234,7 +4234,7 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4254,7 +4254,7 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4274,7 +4274,7 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4294,7 +4294,7 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4314,7 +4314,7 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -4334,7 +4334,7 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -4354,7 +4354,7 @@
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -4374,7 +4374,7 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -4394,7 +4394,7 @@
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -4456,7 +4456,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E22" s="11">
         <v>1</v>
@@ -4477,7 +4477,7 @@
         <v>8</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E23" s="11">
         <v>1</v>
@@ -4498,7 +4498,7 @@
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -4518,7 +4518,7 @@
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -4538,7 +4538,7 @@
         <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -4558,7 +4558,7 @@
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -4578,7 +4578,7 @@
         <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -4903,7 +4903,7 @@
         <v>7</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E44" s="16">
         <v>1</v>
@@ -4923,7 +4923,7 @@
         <v>7</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E45" s="16">
         <v>1</v>
@@ -4943,7 +4943,7 @@
         <v>7</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E46" s="16">
         <v>1</v>
@@ -4963,7 +4963,7 @@
         <v>7</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E47" s="16">
         <v>1</v>
@@ -4983,7 +4983,7 @@
         <v>7</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E48" s="16">
         <v>1</v>
@@ -5003,7 +5003,7 @@
         <v>7</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E49" s="16">
         <v>1</v>
@@ -5023,7 +5023,7 @@
         <v>7</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E50" s="16">
         <v>1</v>
@@ -5043,7 +5043,7 @@
         <v>7</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E51" s="16">
         <v>1</v>
@@ -5063,7 +5063,7 @@
         <v>7</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E52" s="16">
         <v>1</v>
@@ -5083,7 +5083,7 @@
         <v>7</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E53" s="16">
         <v>1</v>
@@ -5103,7 +5103,7 @@
         <v>7</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E54" s="16">
         <v>1</v>
@@ -5123,7 +5123,7 @@
         <v>7</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E55" s="16">
         <v>1</v>
@@ -5143,7 +5143,7 @@
         <v>7</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E56" s="16">
         <v>1</v>
@@ -5163,7 +5163,7 @@
         <v>7</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E57" s="16">
         <v>1</v>
@@ -5183,7 +5183,7 @@
         <v>7</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E58" s="16">
         <v>1</v>
@@ -5266,7 +5266,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E62" s="22">
         <v>30</v>
@@ -5287,7 +5287,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E63" s="22">
         <v>30</v>
@@ -5308,7 +5308,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E64" s="22">
         <v>10</v>
@@ -5329,7 +5329,7 @@
         <v>8</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E65" s="30">
         <v>1</v>
@@ -5350,7 +5350,7 @@
         <v>8</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E66" s="30">
         <v>1</v>
@@ -5371,7 +5371,7 @@
         <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -5391,7 +5391,7 @@
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -5411,7 +5411,7 @@
         <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -5431,7 +5431,7 @@
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -5451,7 +5451,7 @@
         <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -5471,7 +5471,7 @@
         <v>7</v>
       </c>
       <c r="D72" s="34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E72" s="34">
         <v>1</v>
@@ -5492,7 +5492,7 @@
         <v>7</v>
       </c>
       <c r="D73" s="34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E73" s="34">
         <v>1</v>
@@ -5513,7 +5513,7 @@
         <v>7</v>
       </c>
       <c r="D74" s="34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="34">
         <v>1</v>
@@ -5534,7 +5534,7 @@
         <v>7</v>
       </c>
       <c r="D75" s="34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E75" s="34">
         <v>1</v>
@@ -5555,7 +5555,7 @@
         <v>7</v>
       </c>
       <c r="D76" s="34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E76" s="34">
         <v>1</v>
@@ -5597,7 +5597,7 @@
         <v>9</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E78" s="22">
         <v>25</v>
@@ -5617,7 +5617,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E79" s="22">
         <v>30</v>
@@ -5638,7 +5638,7 @@
         <v>9</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E80" s="22">
         <v>30</v>
@@ -5659,7 +5659,7 @@
         <v>9</v>
       </c>
       <c r="D81" s="22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E81" s="22">
         <v>10</v>
@@ -5680,7 +5680,7 @@
         <v>9</v>
       </c>
       <c r="D82" s="22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E82" s="22">
         <v>25</v>
@@ -5721,7 +5721,7 @@
         <v>10</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E84" s="25">
         <v>30</v>
@@ -5741,7 +5741,7 @@
         <v>10</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E85" s="25">
         <v>30</v>
@@ -5761,7 +5761,7 @@
         <v>10</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E86" s="25">
         <v>30</v>
@@ -5781,7 +5781,7 @@
         <v>10</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E87" s="25">
         <v>30</v>
@@ -5802,7 +5802,7 @@
         <v>10</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E88" s="25">
         <v>30</v>
@@ -5823,7 +5823,7 @@
         <v>10</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="E89" s="25">
         <v>30</v>
@@ -5842,8 +5842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964443A3-465C-F448-B0D8-DC2554027F31}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="112" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="112" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5861,31 +5861,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K1" s="3"/>
     </row>
@@ -5906,7 +5906,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G2" s="5">
         <v>45302</v>
@@ -5933,7 +5933,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G3" s="5">
         <v>45302</v>
@@ -5960,7 +5960,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G4" s="5">
         <v>45302</v>
@@ -5987,7 +5987,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G5" s="5">
         <v>45302</v>
@@ -6013,7 +6013,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G6" s="5">
         <v>45302</v>
@@ -6039,7 +6039,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G7" s="5">
         <v>45302</v>
@@ -6066,7 +6066,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G8" s="5">
         <v>45302</v>
@@ -6093,7 +6093,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G9" s="5">
         <v>45302</v>
@@ -6120,7 +6120,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G10" s="5">
         <v>45302</v>
@@ -6147,7 +6147,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G11" s="12">
         <v>45332</v>
@@ -6174,7 +6174,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G12" s="12">
         <v>45332</v>
@@ -6201,7 +6201,7 @@
         <v>7</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G13" s="5">
         <v>45337</v>
@@ -6228,7 +6228,7 @@
         <v>7</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G14" s="5">
         <v>45337</v>
@@ -6255,7 +6255,7 @@
         <v>7</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G15" s="5">
         <v>45337</v>
@@ -6282,7 +6282,7 @@
         <v>7</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G16" s="5">
         <v>45337</v>
@@ -6309,7 +6309,7 @@
         <v>7</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G17" s="5">
         <v>45337</v>
@@ -6336,7 +6336,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G18" s="17">
         <v>45374</v>
@@ -6363,7 +6363,7 @@
         <v>7</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G19" s="17">
         <v>45374</v>
@@ -6390,7 +6390,7 @@
         <v>7</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G20" s="17">
         <v>45374</v>
@@ -6417,7 +6417,7 @@
         <v>7</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G21" s="17">
         <v>45374</v>
@@ -6443,7 +6443,7 @@
         <v>7</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G22" s="17">
         <v>45374</v>
@@ -6469,7 +6469,7 @@
         <v>7</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G23" s="17">
         <v>45374</v>
@@ -6495,7 +6495,7 @@
         <v>7</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G24" s="17">
         <v>45374</v>
@@ -6521,7 +6521,7 @@
         <v>7</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G25" s="17">
         <v>45374</v>
@@ -6547,7 +6547,7 @@
         <v>7</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G26" s="17">
         <v>45374</v>
@@ -6573,7 +6573,7 @@
         <v>7</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G27" s="17">
         <v>45374</v>
@@ -6599,7 +6599,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G28" s="17">
         <v>45374</v>
@@ -6625,7 +6625,7 @@
         <v>7</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G29" s="17">
         <v>45374</v>
@@ -6651,7 +6651,7 @@
         <v>7</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G30" s="17">
         <v>45374</v>
@@ -6677,7 +6677,7 @@
         <v>7</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G31" s="17">
         <v>45374</v>
@@ -6703,7 +6703,7 @@
         <v>7</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G32" s="17">
         <v>45374</v>
@@ -6729,7 +6729,7 @@
         <v>9</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G33" s="23">
         <v>45494</v>
@@ -6755,7 +6755,7 @@
         <v>9</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G34" s="23">
         <v>45494</v>
@@ -6781,7 +6781,7 @@
         <v>9</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G35" s="23">
         <v>45494</v>
@@ -6807,7 +6807,7 @@
         <v>8</v>
       </c>
       <c r="F36" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G36" s="31">
         <v>45504</v>
@@ -6833,7 +6833,7 @@
         <v>8</v>
       </c>
       <c r="F37" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G37" s="31">
         <v>45504</v>
@@ -6859,7 +6859,7 @@
         <v>7</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G38" s="5">
         <v>45504</v>
@@ -6885,7 +6885,7 @@
         <v>7</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G39" s="5">
         <v>45504</v>
@@ -6911,7 +6911,7 @@
         <v>7</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G40" s="5">
         <v>45504</v>
@@ -6937,7 +6937,7 @@
         <v>7</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G41" s="5">
         <v>45504</v>
@@ -6963,7 +6963,7 @@
         <v>7</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G42" s="5">
         <v>45504</v>
@@ -6989,7 +6989,7 @@
         <v>7</v>
       </c>
       <c r="F43" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G43" s="35">
         <v>45511</v>
@@ -7015,7 +7015,7 @@
         <v>7</v>
       </c>
       <c r="F44" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G44" s="35">
         <v>45511</v>
@@ -7041,7 +7041,7 @@
         <v>7</v>
       </c>
       <c r="F45" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G45" s="35">
         <v>45511</v>
@@ -7067,7 +7067,7 @@
         <v>7</v>
       </c>
       <c r="F46" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G46" s="35">
         <v>45511</v>
@@ -7093,7 +7093,7 @@
         <v>7</v>
       </c>
       <c r="F47" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G47" s="35">
         <v>45511</v>
@@ -7119,7 +7119,7 @@
         <v>9</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G48" s="23">
         <v>45541</v>
@@ -7145,7 +7145,7 @@
         <v>9</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G49" s="23">
         <v>45596</v>
@@ -7171,7 +7171,7 @@
         <v>9</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G50" s="23">
         <v>45596</v>
@@ -7197,7 +7197,7 @@
         <v>9</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="G51" s="23">
         <v>45596</v>
@@ -7223,7 +7223,7 @@
         <v>9</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="G52" s="23">
         <v>45596</v>
@@ -7249,7 +7249,7 @@
         <v>10</v>
       </c>
       <c r="F53" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G53" s="28">
         <v>45663</v>
@@ -7275,7 +7275,7 @@
         <v>10</v>
       </c>
       <c r="F54" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G54" s="28">
         <v>45663</v>
@@ -7301,7 +7301,7 @@
         <v>10</v>
       </c>
       <c r="F55" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G55" s="28">
         <v>45663</v>
@@ -7327,7 +7327,7 @@
         <v>10</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G56" s="5">
         <v>45747</v>
@@ -7353,7 +7353,7 @@
         <v>10</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G57" s="5">
         <v>45747</v>
@@ -7379,7 +7379,7 @@
         <v>10</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="G58" s="5">
         <v>45747</v>
@@ -7457,7 +7457,7 @@
         <v>22</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>6</v>
@@ -7468,16 +7468,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>27</v>
@@ -7506,16 +7506,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>27</v>
@@ -7544,16 +7544,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>27</v>
@@ -7582,19 +7582,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I5" s="5">
         <v>32143</v>
@@ -7620,19 +7620,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I6" s="5">
         <v>32143</v>
@@ -7658,16 +7658,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>27</v>
@@ -7696,16 +7696,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>27</v>
@@ -7734,19 +7734,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I9" s="5">
         <v>36526</v>
@@ -7772,16 +7772,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>27</v>
@@ -7810,16 +7810,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>27</v>
@@ -7848,19 +7848,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I12" s="5">
         <v>36526</v>
@@ -7888,10 +7888,10 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>27</v>
@@ -7922,15 +7922,15 @@
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I14" s="12">
         <v>36526</v>
@@ -7959,10 +7959,10 @@
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -7996,10 +7996,10 @@
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
       <c r="D16" s="32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
@@ -8033,13 +8033,13 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I17" s="5">
         <v>36526</v>
@@ -8067,10 +8067,10 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>27</v>
@@ -8101,13 +8101,13 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I19" s="5">
         <v>36526</v>
@@ -8135,10 +8135,10 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>27</v>
@@ -8169,10 +8169,10 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>27</v>
@@ -8203,13 +8203,13 @@
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="I22" s="5">
         <v>36526</v>
@@ -8285,7 +8285,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>6</v>
@@ -8296,10 +8296,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="D2" s="5">
         <v>45261</v>
@@ -8313,10 +8313,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="D3" s="5">
         <v>45261</v>
@@ -8335,7 +8335,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8358,16 +8358,16 @@
         <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="42" t="s">
-        <v>249</v>
+      <c r="H1" s="41" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -8378,7 +8378,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D2">
         <v>5335000</v>
@@ -8393,7 +8393,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -8404,7 +8404,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3">
         <v>104000</v>
@@ -8419,7 +8419,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -8430,7 +8430,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4">
         <v>1000000</v>
@@ -8445,7 +8445,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -8473,7 +8473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8737BC-8CFA-F241-9893-0286E3B219E1}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
+    <sheetView zoomScale="141" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -8497,7 +8497,7 @@
         <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>9</v>
@@ -8512,7 +8512,7 @@
         <v>43</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I1" s="37" t="s">
         <v>6</v>
@@ -9092,7 +9092,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9113,7 +9113,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>45</v>
@@ -9125,7 +9125,7 @@
         <v>47</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -9234,7 +9234,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F6">
         <v>20000</v>
@@ -9277,10 +9277,10 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>248</v>
       </c>
       <c r="E8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F8">
         <v>150000</v>
@@ -9300,10 +9300,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>51</v>
+        <v>248</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F9" s="11">
         <v>20000</v>
@@ -9323,10 +9323,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>51</v>
+        <v>248</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F10" s="16">
         <v>500000</v>
@@ -9346,10 +9346,10 @@
         <v>5</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>51</v>
+        <v>248</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F11" s="22">
         <v>50000</v>
@@ -9369,10 +9369,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F12" s="11">
         <v>5000</v>
@@ -9392,10 +9392,10 @@
         <v>5</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>51</v>
+        <v>248</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F13" s="22">
         <v>4000</v>
@@ -9415,10 +9415,10 @@
         <v>5</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F14" s="22">
         <v>0</v>
@@ -9438,10 +9438,10 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>248</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F15" s="25">
         <v>15000</v>
@@ -9461,10 +9461,10 @@
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F16">
         <v>3000</v>
@@ -9545,10 +9545,10 @@
         <v>59</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>6</v>
@@ -9561,10 +9561,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E2">
         <v>12</v>
@@ -9584,10 +9584,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E3">
         <v>12</v>
@@ -9607,10 +9607,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E4">
         <v>12</v>
@@ -9630,10 +9630,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E5">
         <v>12</v>
@@ -9653,10 +9653,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6">
@@ -9681,10 +9681,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11">
@@ -9707,10 +9707,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="11">
@@ -9732,10 +9732,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16">
@@ -9757,10 +9757,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16">
@@ -9782,10 +9782,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16">
@@ -9807,10 +9807,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="16">
@@ -9832,10 +9832,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13" s="16">
         <v>12</v>
@@ -9855,17 +9855,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="22">
         <v>6</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G14" s="22">
         <v>9</v>
@@ -9882,17 +9882,17 @@
         <v>14</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22">
         <v>6</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G15" s="22">
         <v>9</v>
@@ -9909,15 +9909,15 @@
         <v>15</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
       <c r="F16" s="22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G16" s="22">
         <v>9</v>
@@ -9934,14 +9934,14 @@
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D17" s="29"/>
       <c r="F17" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G17" s="22">
         <v>9</v>
@@ -10086,7 +10086,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10112,7 +10112,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>63</v>
@@ -10130,13 +10130,13 @@
         <v>66</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -10153,7 +10153,7 @@
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F2">
         <v>49000</v>
@@ -10183,10 +10183,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="F3" s="11">
         <v>0</v>
@@ -10221,7 +10221,7 @@
         <v>52</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F4" s="16">
         <v>92000</v>
@@ -10251,10 +10251,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F5" s="22">
         <v>0</v>
@@ -10286,10 +10286,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F6" s="25">
         <v>0</v>
@@ -10321,7 +10321,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView zoomScale="139" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D16" sqref="D2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10342,7 +10342,7 @@
         <v>62</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>45</v>
@@ -10354,7 +10354,7 @@
         <v>68</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -10394,7 +10394,7 @@
         <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F3">
         <v>101000</v>
@@ -10440,7 +10440,7 @@
         <v>51</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F5" s="11">
         <v>15000</v>
@@ -10486,7 +10486,7 @@
         <v>51</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F7" s="16">
         <v>408000</v>
@@ -10532,7 +10532,7 @@
         <v>51</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F9" s="22">
         <v>49000</v>
@@ -10551,11 +10551,11 @@
       <c r="C10" s="11">
         <v>4</v>
       </c>
-      <c r="D10" s="41" t="s">
-        <v>89</v>
+      <c r="D10" s="42" t="s">
+        <v>246</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F10" s="11">
         <v>5000</v>
@@ -10578,7 +10578,7 @@
         <v>48</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F11" s="22">
         <v>4000</v>
@@ -10601,7 +10601,7 @@
         <v>51</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F12" s="22">
         <v>5000</v>
@@ -10621,10 +10621,10 @@
         <v>5</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>89</v>
+        <v>246</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F13" s="22">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>51</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F15" s="25">
         <v>12000</v>
@@ -10690,10 +10690,10 @@
         <v>5</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>89</v>
+        <v>246</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F16" s="25">
         <v>3000</v>

--- a/data/data1.xlsx
+++ b/data/data1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonalikulkarni/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kartik/Desktop/Asset-Management/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E306B48C-F4DD-CB4B-AFD5-A25C56D62250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A50E60-949F-4448-93A0-79EEC25EF729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="11" xr2:uid="{CBAEEE57-D7BC-1A44-B5CC-2855726ECD75}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18380" activeTab="6" xr2:uid="{CBAEEE57-D7BC-1A44-B5CC-2855726ECD75}"/>
   </bookViews>
   <sheets>
     <sheet name="Roles" sheetId="1" r:id="rId1"/>
@@ -961,7 +961,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1001,7 +1001,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3733,7 +3732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31623C54-9A75-E640-B3C9-A50967241CC5}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
+    <sheetView zoomScale="118" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -6175,7 +6174,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="39">
+      <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="25">
@@ -6198,7 +6197,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="39">
+      <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="25">
@@ -6221,7 +6220,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="39">
+      <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="25">
@@ -6244,7 +6243,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="39">
+      <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="25">
@@ -6267,7 +6266,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="39">
+      <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="25">
@@ -6538,7 +6537,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="39">
+      <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="25">
@@ -6561,7 +6560,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="39">
+      <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="25">
@@ -6584,7 +6583,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="39">
+      <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="25">
@@ -6607,7 +6606,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="39">
+      <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" s="25">
@@ -6630,7 +6629,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="39">
+      <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" s="25">
@@ -6653,7 +6652,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="39">
+      <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" s="25">
@@ -6676,7 +6675,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="39">
+      <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" s="25">
@@ -10033,8 +10032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00759BF5-8AD4-8946-81FD-2615C0E9D072}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView zoomScale="131" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10472,6 +10471,9 @@
       </c>
       <c r="H17" s="23">
         <v>45478</v>
+      </c>
+      <c r="I17" s="22">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
